--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392161.347057314</v>
+        <v>1390273.765540911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>327.7725728859734</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2798265132784</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.2725262699916</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>127.0784597613397</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.4980067434912</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>54.47555601903365</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.64711324991042</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.99636303581896</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.468681996296</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185831</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.6405752120378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.4704758913032</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6519788371596</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.7053919670785</v>
+        <v>143.3158222056512</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.743810140442</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>210.0038270766192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>42.20569823125665</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>177.5662480225012</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789464</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463136</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689359</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.815961912944</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1057.853444972532</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.815961912944</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="3">
@@ -4389,28 +4389,28 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390238</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.639756704408</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2513.758320981706</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.758320981706</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2140.292562720626</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>350.0227938960811</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1328463981708</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>671.253604908411</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>306.0424055524571</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2665.839633406284</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2665.839633406284</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2665.839633406284</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2665.839633406284</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2334.776746062713</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.92941776073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>517.92941776073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>367.8127783483942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344998</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344998</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.5778825909697</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.1301850426787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1301850426787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1301850426787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,19 +5440,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305956</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.1301850426787</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,13 +5498,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609661</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181186</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655734</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286129</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286129</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,49 +6221,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405892</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6415,19 +6415,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>863.0857674077894</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>573.6685973708288</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>573.6685973708288</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.6685973708288</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,61 +6452,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749905</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749905</v>
+        <v>326.3571123076837</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440254</v>
+        <v>232.0013381767189</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343003</v>
+        <v>139.8491098756966</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264633</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970146</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1533.427428482772</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1334.503805558255</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.847500802666</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>928.6188151860189</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>763.5871013238595</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229662</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083194</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504501</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,46 +7157,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360582</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88923345256728</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>23.96528065027316</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.2331835502365</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.94407814005703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.879261385016292</v>
+        <v>75.26883114644357</v>
       </c>
     </row>
     <row r="23">
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338596</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>42.13381624720876</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888944</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>53.46784774751914</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="11">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="F2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="G2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="H2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114798</v>
-      </c>
       <c r="K2" t="n">
-        <v>447504.3510797973</v>
+        <v>447504.351079797</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253562</v>
@@ -26353,7 +26353,7 @@
         <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253564</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,34 +26424,34 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007521</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732793</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732803</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685189</v>
+        <v>-369171.0325685188</v>
       </c>
       <c r="C6" t="n">
-        <v>220796.8466460257</v>
+        <v>220796.8466460256</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460257</v>
+        <v>220796.8466460256</v>
       </c>
       <c r="E6" t="n">
-        <v>-194932.1283701404</v>
+        <v>-195029.5874961129</v>
       </c>
       <c r="F6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="G6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="H6" t="n">
-        <v>330227.9081067557</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="I6" t="n">
-        <v>330227.9081067557</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141627</v>
+        <v>153707.2297881905</v>
       </c>
       <c r="K6" t="n">
-        <v>280632.1830765249</v>
+        <v>280613.6893385902</v>
       </c>
       <c r="L6" t="n">
-        <v>313179.4419071359</v>
+        <v>313179.4419071361</v>
       </c>
       <c r="M6" t="n">
         <v>188721.3334741657</v>
@@ -26558,10 +26558,10 @@
         <v>323522.348708003</v>
       </c>
       <c r="O6" t="n">
-        <v>323522.3487080028</v>
+        <v>323522.348708003</v>
       </c>
       <c r="P6" t="n">
-        <v>279359.7434051572</v>
+        <v>279359.7434051573</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.96126877750714</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>333.4032151074045</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.55945391194567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690381</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>200.6737987087952</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.81179551555968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1370567708846</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.48203953899274</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172477</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839184</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>373.0838068505802</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
